--- a/src/login.xlsx
+++ b/src/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="login_sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>password</t>
   </si>
@@ -58,40 +58,38 @@
     <t>sendinblue</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a@</t>
-  </si>
-  <si>
-    <t>@@@</t>
-  </si>
-  <si>
-    <t>321ad@</t>
-  </si>
-  <si>
-    <t>assd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   dawd5541</t>
+    <t>demo124</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>demo125</t>
+  </si>
+  <si>
+    <t>demo126</t>
+  </si>
+  <si>
+    <t>demo127</t>
+  </si>
+  <si>
+    <t>demo128</t>
+  </si>
+  <si>
+    <t>demo129</t>
+  </si>
+  <si>
+    <t>demo130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,18 +111,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +427,7 @@
     <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -423,63 +435,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>544156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A7" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -487,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
